--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,21 +647,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -707,21 +707,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance has been disabled</t>
+          <t>Aircraft will land</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -767,16 +767,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
+          <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Loading database failed</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Loading database failed</t>
+          <t>Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -827,21 +827,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Loading database failed Geo-awareness function degraded .</t>
+          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Geo-awareness function degraded</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-17</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -887,26 +887,26 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Live stream video frame rate less than 9Hz</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3-17</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -941,27 +941,27 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Drag a box around or tap a target on screen</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen</t>
+          <t>Then tap Go</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1007,31 +1007,31 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Then tap Go</t>
+          <t>Aircraft GPS signal too weak</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1067,26 +1067,26 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Home Point not updated</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1127,91 +1127,91 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1247,21 +1247,21 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1270,66 +1270,6 @@
         </is>
       </c>
       <c r="F28" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>22</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Ambient Light is too weak</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>6-10</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>22</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
         <is>
           <t>Event</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,21 +647,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Advanced RTH Image Transmission Recovered</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
+          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance has been disabled</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -707,21 +707,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
+          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Downward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aircraft will land</t>
+          <t>Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -767,16 +767,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Loading database failed Geo-awareness function degraded .</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Loading database failed</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Geo-awareness function degraded</t>
+          <t>Loading database failed</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -827,21 +827,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3-17</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -887,26 +887,26 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
+          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz</t>
+          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>3-17</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Live stream video frame rate less than 9Hz</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -941,27 +941,27 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Then tap Go</t>
+          <t>Drag a box around or tap a target on screen</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1007,31 +1007,31 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak</t>
+          <t>Then tap Go</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Home Point not updated</t>
+          <t>Aircraft GPS signal too weak</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1067,26 +1067,26 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1127,91 +1127,91 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1247,29 +1247,89 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
+        <v>21</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Forward Obstacle Sensing is not functioning</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0-5</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>22</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Ambient Light is too weak</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>6-10</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>22</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Backward Obstacle Sensing is not functioning</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0-5</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
